--- a/output3/【河洛話注音】working.xlsx
+++ b/output3/【河洛話注音】working.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7926562D-D5E6-4905-ACFD-B253E1434268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC874A67-4BAF-47B4-B8EB-D2073F4EC599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
   </bookViews>
   <sheets>
     <sheet name="env" sheetId="10" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="290">
   <si>
     <t>【台羅拼音】</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1055,9 +1055,6 @@
     <t>ㄚㄏˊ</t>
   </si>
   <si>
-    <t>https://shoplineimg.com/5db585d59db3cb0012a18bce/5f2a9d3f30cc6200455c1c25/1296x.webp?source_format=jpg</t>
-  </si>
-  <si>
     <t>每頁總列數</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1073,9 +1070,6 @@
     <t>OUTPUT_PATH</t>
   </si>
   <si>
-    <t>output2</t>
-  </si>
-  <si>
     <t>章節序號</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1087,78 +1081,331 @@
     <t>，</t>
   </si>
   <si>
+    <t>之</t>
+  </si>
+  <si>
+    <t>。</t>
+  </si>
+  <si>
+    <t>語音類型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白話音</t>
+  </si>
+  <si>
+    <t>室</t>
+  </si>
+  <si>
+    <t>子</t>
+  </si>
+  <si>
+    <t>歸</t>
+  </si>
+  <si>
+    <t>家</t>
+  </si>
+  <si>
+    <t>output3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>採薇採薇，薇亦作止。曰歸曰歸，歲亦莫止。 靡室靡家，玁狁之故。不遑啟居，玁狁之故。
+採薇採薇，薇亦柔止。曰歸曰歸，心亦憂止。 憂心烈烈，載飢載渴。我戍未定，靡使歸聘。
+採薇採薇，薇亦剛止。曰歸曰歸，歲亦陽止。 王事靡盬，不遑啟處。憂心孔疚，我行不來！
+彼爾維何？維常之華。彼路斯何？君子之車。 戎車既駕，四牡業業。豈敢定居？一月三捷。
+駕彼四牡，四牡騤騤。君子所依，小人所腓。 四牡翼翼，象弭魚服。豈不日戒？玁狁孔棘！
+昔我往矣，楊柳依依。今我來思，雨雪霏霏。 行道遲遲，載渴載飢。我心傷悲，莫知我哀！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《詩經。小雅。採薇》【白話音】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/hkKTI9U1JVA/hq720.jpg?sqp=-oaymwEhCK4FEIIDSFryq4qpAxMIARUAAAAAGAElAADIQj0AgKJD&amp;rs=AOn4CLCHw9h-_mVgx9yC-LBau97hFw9Xbg</t>
+  </si>
+  <si>
+    <t>採</t>
+  </si>
+  <si>
+    <t>薇</t>
+  </si>
+  <si>
+    <t>亦</t>
+  </si>
+  <si>
+    <t>作</t>
+  </si>
+  <si>
+    <t>止</t>
+  </si>
+  <si>
+    <t>曰</t>
+  </si>
+  <si>
+    <t>歲</t>
+  </si>
+  <si>
+    <t>莫</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>靡</t>
+  </si>
+  <si>
+    <t>玁</t>
+  </si>
+  <si>
+    <t>狁</t>
+  </si>
+  <si>
+    <t>故</t>
+  </si>
+  <si>
+    <t>不</t>
+  </si>
+  <si>
+    <t>遑</t>
+  </si>
+  <si>
+    <t>啟</t>
+  </si>
+  <si>
+    <t>居</t>
+  </si>
+  <si>
+    <t>柔</t>
+  </si>
+  <si>
+    <t>心</t>
+  </si>
+  <si>
+    <t>憂</t>
+  </si>
+  <si>
+    <t>烈</t>
+  </si>
+  <si>
+    <t>載</t>
+  </si>
+  <si>
+    <t>飢</t>
+  </si>
+  <si>
+    <t>渴</t>
+  </si>
+  <si>
+    <t>我</t>
+  </si>
+  <si>
+    <t>戍</t>
+  </si>
+  <si>
+    <t>未</t>
+  </si>
+  <si>
+    <t>定</t>
+  </si>
+  <si>
+    <t>使</t>
+  </si>
+  <si>
+    <t>聘</t>
+  </si>
+  <si>
+    <t>剛</t>
+  </si>
+  <si>
+    <t>陽</t>
+  </si>
+  <si>
+    <t>王</t>
+  </si>
+  <si>
+    <t>事</t>
+  </si>
+  <si>
+    <t>盬</t>
+  </si>
+  <si>
+    <t>處</t>
+  </si>
+  <si>
+    <t>孔</t>
+  </si>
+  <si>
+    <t>疚</t>
+  </si>
+  <si>
+    <t>行</t>
+  </si>
+  <si>
+    <t>來</t>
+  </si>
+  <si>
+    <t>！</t>
+  </si>
+  <si>
+    <t>彼</t>
+  </si>
+  <si>
+    <t>爾</t>
+  </si>
+  <si>
+    <t>維</t>
+  </si>
+  <si>
+    <t>何</t>
+  </si>
+  <si>
+    <t>？</t>
+  </si>
+  <si>
+    <t>常</t>
+  </si>
+  <si>
+    <t>華</t>
+  </si>
+  <si>
+    <t>路</t>
+  </si>
+  <si>
+    <t>斯</t>
+  </si>
+  <si>
+    <t>君</t>
+  </si>
+  <si>
+    <t>車</t>
+  </si>
+  <si>
+    <t>戎</t>
+  </si>
+  <si>
+    <t>既</t>
+  </si>
+  <si>
+    <t>駕</t>
+  </si>
+  <si>
+    <t>四</t>
+  </si>
+  <si>
+    <t>牡</t>
+  </si>
+  <si>
+    <t>業</t>
+  </si>
+  <si>
+    <t>豈</t>
+  </si>
+  <si>
+    <t>敢</t>
+  </si>
+  <si>
+    <t>一</t>
+  </si>
+  <si>
+    <t>月</t>
+  </si>
+  <si>
+    <t>三</t>
+  </si>
+  <si>
+    <t>捷</t>
+  </si>
+  <si>
+    <t>騤</t>
+  </si>
+  <si>
+    <t>所</t>
+  </si>
+  <si>
+    <t>依</t>
+  </si>
+  <si>
+    <t>小</t>
+  </si>
+  <si>
     <t>人</t>
   </si>
   <si>
-    <t>之</t>
-  </si>
-  <si>
-    <t>。</t>
-  </si>
-  <si>
-    <t>其</t>
-  </si>
-  <si>
-    <t>有</t>
-  </si>
-  <si>
-    <t>語音類型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>白話音</t>
-  </si>
-  <si>
-    <t>室</t>
-  </si>
-  <si>
-    <t>桃之夭夭，灼灼其華。之子于歸，宜其室家。
-桃之夭夭，有蕡其實。之子于歸，宜其家室。
-桃之夭夭，其葉蓁蓁。之子于歸，宜其家人。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>《詩經。周南。桃夭》【白話音】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>桃</t>
-  </si>
-  <si>
-    <t>夭</t>
-  </si>
-  <si>
-    <t>灼</t>
-  </si>
-  <si>
-    <t>華</t>
-  </si>
-  <si>
-    <t>子</t>
-  </si>
-  <si>
-    <t>于</t>
-  </si>
-  <si>
-    <t>歸</t>
-  </si>
-  <si>
-    <t>宜</t>
-  </si>
-  <si>
-    <t>家</t>
-  </si>
-  <si>
-    <t>蕡</t>
-  </si>
-  <si>
-    <t>實</t>
-  </si>
-  <si>
-    <t>葉</t>
-  </si>
-  <si>
-    <t>蓁</t>
+    <t>腓</t>
+  </si>
+  <si>
+    <t>翼</t>
+  </si>
+  <si>
+    <t>象</t>
+  </si>
+  <si>
+    <t>弭</t>
+  </si>
+  <si>
+    <t>魚</t>
+  </si>
+  <si>
+    <t>服</t>
+  </si>
+  <si>
+    <t>日</t>
+  </si>
+  <si>
+    <t>戒</t>
+  </si>
+  <si>
+    <t>棘</t>
+  </si>
+  <si>
+    <t>昔</t>
+  </si>
+  <si>
+    <t>往</t>
+  </si>
+  <si>
+    <t>矣</t>
+  </si>
+  <si>
+    <t>楊</t>
+  </si>
+  <si>
+    <t>柳</t>
+  </si>
+  <si>
+    <t>今</t>
+  </si>
+  <si>
+    <t>思</t>
+  </si>
+  <si>
+    <t>雨</t>
+  </si>
+  <si>
+    <t>雪</t>
+  </si>
+  <si>
+    <t>霏</t>
+  </si>
+  <si>
+    <t>道</t>
+  </si>
+  <si>
+    <t>遲</t>
+  </si>
+  <si>
+    <t>傷</t>
+  </si>
+  <si>
+    <t>悲</t>
+  </si>
+  <si>
+    <t>知</t>
+  </si>
+  <si>
+    <t>哀</t>
   </si>
 </sst>
 </file>
@@ -2223,7 +2470,31 @@
     <cellStyle name="超連結" xfId="3" builtinId="8"/>
     <cellStyle name="超連結 2" xfId="2" xr:uid="{AF644068-9C78-42CD-96C0-AD9C8A3B8BDE}"/>
   </cellStyles>
-  <dxfs count="48">
+  <dxfs count="50">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -3317,7 +3588,7 @@
   <dimension ref="B1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="25.5"/>
@@ -3341,7 +3612,7 @@
         <v>162</v>
       </c>
       <c r="C2" s="78" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="2:3">
@@ -3357,7 +3628,7 @@
         <v>165</v>
       </c>
       <c r="C4" s="54" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="2:3">
@@ -3365,20 +3636,20 @@
         <v>166</v>
       </c>
       <c r="C5" s="61" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" s="74" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C6" s="76" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" s="53" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C7" s="97">
         <v>1</v>
@@ -3394,7 +3665,7 @@
     </row>
     <row r="9" spans="2:3">
       <c r="B9" s="74" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C9" s="77">
         <v>60</v>
@@ -3402,7 +3673,7 @@
     </row>
     <row r="10" spans="2:3">
       <c r="B10" s="75" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C10" s="77">
         <v>15</v>
@@ -3410,10 +3681,10 @@
     </row>
     <row r="11" spans="2:3">
       <c r="B11" s="99" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C11" s="53" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -3434,8 +3705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8C53779-CCF8-43BA-AEFF-2336C12771BD}">
   <dimension ref="B2:AC242"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A74" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="A93" sqref="A93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39"/>
@@ -3470,7 +3741,7 @@
       <c r="S2" s="91"/>
       <c r="V2" s="59">
         <f xml:space="preserve"> LEN(V3)</f>
-        <v>62</v>
+        <v>256</v>
       </c>
     </row>
     <row r="3" spans="2:29" s="64" customFormat="1" ht="60" customHeight="1">
@@ -3493,7 +3764,7 @@
       <c r="R3" s="83"/>
       <c r="T3" s="92"/>
       <c r="V3" s="100" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="2:29" s="1" customFormat="1" ht="36" customHeight="1">
@@ -3524,46 +3795,46 @@
         <v>196</v>
       </c>
       <c r="E5" s="80" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="F5" s="80" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G5" s="80" t="s">
         <v>197</v>
       </c>
       <c r="H5" s="80" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I5" s="80" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J5" s="80" t="s">
         <v>198</v>
       </c>
       <c r="K5" s="80" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="L5" s="80" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M5" s="80" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="N5" s="80" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="O5" s="80" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="P5" s="98" t="s">
         <v>201</v>
       </c>
       <c r="Q5" s="80" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="R5" s="80" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="S5" s="94"/>
       <c r="V5" s="101"/>
@@ -3636,30 +3907,50 @@
         <v>2</v>
       </c>
       <c r="D9" s="80" t="s">
+        <v>202</v>
+      </c>
+      <c r="E9" s="80" t="s">
+        <v>198</v>
+      </c>
+      <c r="F9" s="80" t="s">
         <v>203</v>
       </c>
-      <c r="E9" s="80" t="s">
-        <v>189</v>
-      </c>
-      <c r="F9" s="80" t="s">
-        <v>193</v>
-      </c>
       <c r="G9" s="80" t="s">
+        <v>200</v>
+      </c>
+      <c r="H9" s="80" t="s">
+        <v>185</v>
+      </c>
+      <c r="I9" s="80" t="s">
         <v>204</v>
       </c>
-      <c r="H9" s="80" t="s">
+      <c r="J9" s="80" t="s">
+        <v>205</v>
+      </c>
+      <c r="K9" s="80" t="s">
         <v>188</v>
       </c>
-      <c r="I9" s="80"/>
-      <c r="J9" s="80"/>
-      <c r="K9" s="80"/>
-      <c r="L9" s="80"/>
-      <c r="M9" s="80"/>
-      <c r="N9" s="80"/>
-      <c r="O9" s="80"/>
-      <c r="P9" s="80"/>
-      <c r="Q9" s="80"/>
-      <c r="R9" s="80"/>
+      <c r="L9" s="80" t="s">
+        <v>205</v>
+      </c>
+      <c r="M9" s="80" t="s">
+        <v>191</v>
+      </c>
+      <c r="N9" s="80" t="s">
+        <v>183</v>
+      </c>
+      <c r="O9" s="80" t="s">
+        <v>206</v>
+      </c>
+      <c r="P9" s="80" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q9" s="80" t="s">
+        <v>184</v>
+      </c>
+      <c r="R9" s="80" t="s">
+        <v>208</v>
+      </c>
       <c r="S9" s="94"/>
       <c r="T9" s="92"/>
       <c r="V9" s="101"/>
@@ -3730,50 +4021,42 @@
         <v>3</v>
       </c>
       <c r="D13" s="80" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="E13" s="80" t="s">
-        <v>187</v>
+        <v>209</v>
       </c>
       <c r="F13" s="80" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="G13" s="80" t="s">
-        <v>197</v>
+        <v>211</v>
       </c>
       <c r="H13" s="80" t="s">
+        <v>212</v>
+      </c>
+      <c r="I13" s="80" t="s">
+        <v>183</v>
+      </c>
+      <c r="J13" s="80" t="s">
+        <v>206</v>
+      </c>
+      <c r="K13" s="80" t="s">
+        <v>207</v>
+      </c>
+      <c r="L13" s="80" t="s">
+        <v>184</v>
+      </c>
+      <c r="M13" s="80" t="s">
+        <v>208</v>
+      </c>
+      <c r="N13" s="80" t="s">
         <v>185</v>
       </c>
-      <c r="I13" s="80" t="s">
-        <v>190</v>
-      </c>
-      <c r="J13" s="80" t="s">
-        <v>205</v>
-      </c>
-      <c r="K13" s="80" t="s">
-        <v>189</v>
-      </c>
-      <c r="L13" s="80" t="s">
-        <v>206</v>
-      </c>
-      <c r="M13" s="80" t="s">
-        <v>188</v>
-      </c>
-      <c r="N13" s="80" t="s">
-        <v>187</v>
-      </c>
-      <c r="O13" s="98" t="s">
-        <v>200</v>
-      </c>
-      <c r="P13" s="80" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q13" s="80" t="s">
-        <v>202</v>
-      </c>
-      <c r="R13" s="98" t="s">
-        <v>185</v>
-      </c>
+      <c r="O13" s="98"/>
+      <c r="P13" s="80"/>
+      <c r="Q13" s="80"/>
+      <c r="R13" s="98"/>
       <c r="S13" s="94"/>
       <c r="V13" s="101"/>
     </row>
@@ -3817,7 +4100,7 @@
       <c r="R15" s="83"/>
       <c r="V15" s="101"/>
       <c r="AC15" s="67" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16" spans="2:29" s="1" customFormat="1" ht="36" customHeight="1">
@@ -3845,21 +4128,11 @@
         <f>B13+1</f>
         <v>4</v>
       </c>
-      <c r="D17" s="80" t="s">
-        <v>203</v>
-      </c>
-      <c r="E17" s="80" t="s">
-        <v>189</v>
-      </c>
-      <c r="F17" s="80" t="s">
-        <v>204</v>
-      </c>
-      <c r="G17" s="80" t="s">
-        <v>193</v>
-      </c>
-      <c r="H17" s="80" t="s">
-        <v>188</v>
-      </c>
+      <c r="D17" s="80"/>
+      <c r="E17" s="80"/>
+      <c r="F17" s="80"/>
+      <c r="G17" s="80"/>
+      <c r="H17" s="80"/>
       <c r="I17" s="80"/>
       <c r="J17" s="80"/>
       <c r="K17" s="80"/>
@@ -3942,46 +4215,46 @@
         <v>196</v>
       </c>
       <c r="E21" s="80" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="F21" s="80" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G21" s="80" t="s">
         <v>197</v>
       </c>
       <c r="H21" s="80" t="s">
+        <v>183</v>
+      </c>
+      <c r="I21" s="80" t="s">
+        <v>197</v>
+      </c>
+      <c r="J21" s="80" t="s">
+        <v>198</v>
+      </c>
+      <c r="K21" s="80" t="s">
+        <v>213</v>
+      </c>
+      <c r="L21" s="80" t="s">
+        <v>200</v>
+      </c>
+      <c r="M21" s="80" t="s">
         <v>185</v>
       </c>
-      <c r="I21" s="80" t="s">
-        <v>189</v>
-      </c>
-      <c r="J21" s="80" t="s">
-        <v>207</v>
-      </c>
-      <c r="K21" s="80" t="s">
-        <v>208</v>
-      </c>
-      <c r="L21" s="80" t="s">
-        <v>208</v>
-      </c>
-      <c r="M21" s="80" t="s">
-        <v>188</v>
-      </c>
       <c r="N21" s="80" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="O21" s="80" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="P21" s="80" t="s">
         <v>201</v>
       </c>
       <c r="Q21" s="80" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="R21" s="80" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="S21" s="94"/>
       <c r="V21" s="101"/>
@@ -4052,30 +4325,50 @@
         <v>6</v>
       </c>
       <c r="D25" s="80" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="E25" s="80" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="F25" s="80" t="s">
+        <v>215</v>
+      </c>
+      <c r="G25" s="80" t="s">
+        <v>200</v>
+      </c>
+      <c r="H25" s="80" t="s">
+        <v>185</v>
+      </c>
+      <c r="I25" s="80" t="s">
         <v>204</v>
       </c>
-      <c r="G25" s="80" t="s">
-        <v>186</v>
-      </c>
-      <c r="H25" s="80" t="s">
-        <v>188</v>
-      </c>
-      <c r="I25" s="80"/>
-      <c r="J25" s="80"/>
-      <c r="K25" s="80"/>
-      <c r="L25" s="80"/>
-      <c r="M25" s="80"/>
-      <c r="N25" s="80"/>
-      <c r="O25" s="80"/>
-      <c r="P25" s="80"/>
-      <c r="Q25" s="80"/>
-      <c r="R25" s="80"/>
+      <c r="J25" s="80" t="s">
+        <v>215</v>
+      </c>
+      <c r="K25" s="80" t="s">
+        <v>214</v>
+      </c>
+      <c r="L25" s="80" t="s">
+        <v>216</v>
+      </c>
+      <c r="M25" s="80" t="s">
+        <v>216</v>
+      </c>
+      <c r="N25" s="80" t="s">
+        <v>183</v>
+      </c>
+      <c r="O25" s="80" t="s">
+        <v>217</v>
+      </c>
+      <c r="P25" s="80" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q25" s="80" t="s">
+        <v>217</v>
+      </c>
+      <c r="R25" s="80" t="s">
+        <v>219</v>
+      </c>
       <c r="S25" s="94"/>
       <c r="V25" s="60"/>
     </row>
@@ -4156,17 +4449,39 @@
         <f>B25+1</f>
         <v>7</v>
       </c>
-      <c r="D29" s="80"/>
-      <c r="E29" s="80"/>
-      <c r="F29" s="80"/>
-      <c r="G29" s="80"/>
-      <c r="H29" s="80"/>
-      <c r="I29" s="80"/>
-      <c r="J29" s="80"/>
-      <c r="K29" s="80"/>
-      <c r="L29" s="80"/>
-      <c r="M29" s="80"/>
-      <c r="N29" s="80"/>
+      <c r="D29" s="80" t="s">
+        <v>185</v>
+      </c>
+      <c r="E29" s="80" t="s">
+        <v>220</v>
+      </c>
+      <c r="F29" s="80" t="s">
+        <v>221</v>
+      </c>
+      <c r="G29" s="80" t="s">
+        <v>222</v>
+      </c>
+      <c r="H29" s="80" t="s">
+        <v>223</v>
+      </c>
+      <c r="I29" s="80" t="s">
+        <v>183</v>
+      </c>
+      <c r="J29" s="80" t="s">
+        <v>205</v>
+      </c>
+      <c r="K29" s="80" t="s">
+        <v>224</v>
+      </c>
+      <c r="L29" s="80" t="s">
+        <v>190</v>
+      </c>
+      <c r="M29" s="80" t="s">
+        <v>225</v>
+      </c>
+      <c r="N29" s="80" t="s">
+        <v>185</v>
+      </c>
       <c r="O29" s="80"/>
       <c r="P29" s="80"/>
       <c r="Q29" s="80"/>
@@ -4338,21 +4653,51 @@
         <f>B33+1</f>
         <v>9</v>
       </c>
-      <c r="D37" s="80"/>
-      <c r="E37" s="80"/>
-      <c r="F37" s="80"/>
-      <c r="G37" s="80"/>
-      <c r="H37" s="80"/>
-      <c r="I37" s="80"/>
-      <c r="J37" s="80"/>
-      <c r="K37" s="80"/>
-      <c r="L37" s="80"/>
-      <c r="M37" s="80"/>
-      <c r="N37" s="80"/>
-      <c r="O37" s="80"/>
-      <c r="P37" s="80"/>
-      <c r="Q37" s="80"/>
-      <c r="R37" s="80"/>
+      <c r="D37" s="80" t="s">
+        <v>196</v>
+      </c>
+      <c r="E37" s="80" t="s">
+        <v>197</v>
+      </c>
+      <c r="F37" s="80" t="s">
+        <v>196</v>
+      </c>
+      <c r="G37" s="80" t="s">
+        <v>197</v>
+      </c>
+      <c r="H37" s="80" t="s">
+        <v>183</v>
+      </c>
+      <c r="I37" s="80" t="s">
+        <v>197</v>
+      </c>
+      <c r="J37" s="80" t="s">
+        <v>198</v>
+      </c>
+      <c r="K37" s="80" t="s">
+        <v>226</v>
+      </c>
+      <c r="L37" s="80" t="s">
+        <v>200</v>
+      </c>
+      <c r="M37" s="80" t="s">
+        <v>185</v>
+      </c>
+      <c r="N37" s="80" t="s">
+        <v>201</v>
+      </c>
+      <c r="O37" s="80" t="s">
+        <v>190</v>
+      </c>
+      <c r="P37" s="80" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q37" s="80" t="s">
+        <v>190</v>
+      </c>
+      <c r="R37" s="80" t="s">
+        <v>183</v>
+      </c>
       <c r="S37" s="94"/>
       <c r="V37" s="60"/>
     </row>
@@ -4421,21 +4766,51 @@
         <f>B37+1</f>
         <v>10</v>
       </c>
-      <c r="D41" s="80"/>
-      <c r="E41" s="80"/>
-      <c r="F41" s="80"/>
-      <c r="G41" s="80"/>
-      <c r="H41" s="80"/>
-      <c r="I41" s="80"/>
-      <c r="J41" s="80"/>
-      <c r="K41" s="80"/>
-      <c r="L41" s="80"/>
-      <c r="M41" s="80"/>
-      <c r="N41" s="80"/>
-      <c r="O41" s="80"/>
-      <c r="P41" s="80"/>
-      <c r="Q41" s="80"/>
-      <c r="R41" s="80"/>
+      <c r="D41" s="80" t="s">
+        <v>202</v>
+      </c>
+      <c r="E41" s="80" t="s">
+        <v>198</v>
+      </c>
+      <c r="F41" s="80" t="s">
+        <v>227</v>
+      </c>
+      <c r="G41" s="80" t="s">
+        <v>200</v>
+      </c>
+      <c r="H41" s="80" t="s">
+        <v>185</v>
+      </c>
+      <c r="I41" s="80" t="s">
+        <v>204</v>
+      </c>
+      <c r="J41" s="80" t="s">
+        <v>228</v>
+      </c>
+      <c r="K41" s="80" t="s">
+        <v>229</v>
+      </c>
+      <c r="L41" s="80" t="s">
+        <v>205</v>
+      </c>
+      <c r="M41" s="80" t="s">
+        <v>230</v>
+      </c>
+      <c r="N41" s="80" t="s">
+        <v>183</v>
+      </c>
+      <c r="O41" s="80" t="s">
+        <v>209</v>
+      </c>
+      <c r="P41" s="80" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q41" s="80" t="s">
+        <v>211</v>
+      </c>
+      <c r="R41" s="80" t="s">
+        <v>231</v>
+      </c>
       <c r="S41" s="94"/>
       <c r="V41" s="60"/>
     </row>
@@ -4504,17 +4879,39 @@
         <f>B41+1</f>
         <v>11</v>
       </c>
-      <c r="D45" s="80"/>
-      <c r="E45" s="80"/>
-      <c r="F45" s="80"/>
-      <c r="G45" s="80"/>
-      <c r="H45" s="80"/>
-      <c r="I45" s="80"/>
-      <c r="J45" s="80"/>
-      <c r="K45" s="80"/>
-      <c r="L45" s="80"/>
-      <c r="M45" s="80"/>
-      <c r="N45" s="80"/>
+      <c r="D45" s="80" t="s">
+        <v>185</v>
+      </c>
+      <c r="E45" s="80" t="s">
+        <v>215</v>
+      </c>
+      <c r="F45" s="80" t="s">
+        <v>214</v>
+      </c>
+      <c r="G45" s="80" t="s">
+        <v>232</v>
+      </c>
+      <c r="H45" s="80" t="s">
+        <v>233</v>
+      </c>
+      <c r="I45" s="80" t="s">
+        <v>183</v>
+      </c>
+      <c r="J45" s="80" t="s">
+        <v>220</v>
+      </c>
+      <c r="K45" s="80" t="s">
+        <v>234</v>
+      </c>
+      <c r="L45" s="80" t="s">
+        <v>209</v>
+      </c>
+      <c r="M45" s="80" t="s">
+        <v>235</v>
+      </c>
+      <c r="N45" s="80" t="s">
+        <v>236</v>
+      </c>
       <c r="O45" s="80"/>
       <c r="P45" s="80"/>
       <c r="Q45" s="80"/>
@@ -4670,21 +5067,51 @@
         <f>B49+1</f>
         <v>13</v>
       </c>
-      <c r="D53" s="80"/>
-      <c r="E53" s="80"/>
-      <c r="F53" s="80"/>
-      <c r="G53" s="81"/>
-      <c r="H53" s="81"/>
-      <c r="I53" s="80"/>
-      <c r="J53" s="80"/>
-      <c r="K53" s="80"/>
-      <c r="L53" s="80"/>
-      <c r="M53" s="80"/>
-      <c r="N53" s="80"/>
-      <c r="O53" s="80"/>
-      <c r="P53" s="80"/>
-      <c r="Q53" s="80"/>
-      <c r="R53" s="80"/>
+      <c r="D53" s="80" t="s">
+        <v>237</v>
+      </c>
+      <c r="E53" s="80" t="s">
+        <v>238</v>
+      </c>
+      <c r="F53" s="80" t="s">
+        <v>239</v>
+      </c>
+      <c r="G53" s="81" t="s">
+        <v>240</v>
+      </c>
+      <c r="H53" s="81" t="s">
+        <v>241</v>
+      </c>
+      <c r="I53" s="80" t="s">
+        <v>239</v>
+      </c>
+      <c r="J53" s="80" t="s">
+        <v>242</v>
+      </c>
+      <c r="K53" s="80" t="s">
+        <v>184</v>
+      </c>
+      <c r="L53" s="80" t="s">
+        <v>243</v>
+      </c>
+      <c r="M53" s="80" t="s">
+        <v>185</v>
+      </c>
+      <c r="N53" s="80" t="s">
+        <v>237</v>
+      </c>
+      <c r="O53" s="80" t="s">
+        <v>244</v>
+      </c>
+      <c r="P53" s="80" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q53" s="80" t="s">
+        <v>240</v>
+      </c>
+      <c r="R53" s="80" t="s">
+        <v>241</v>
+      </c>
       <c r="S53" s="94"/>
       <c r="V53" s="60"/>
     </row>
@@ -4753,21 +5180,51 @@
         <f>B53+1</f>
         <v>14</v>
       </c>
-      <c r="D57" s="80"/>
-      <c r="E57" s="80"/>
-      <c r="F57" s="80"/>
-      <c r="G57" s="81"/>
-      <c r="H57" s="80"/>
-      <c r="I57" s="80"/>
-      <c r="J57" s="80"/>
-      <c r="K57" s="80"/>
-      <c r="L57" s="80"/>
-      <c r="M57" s="80"/>
-      <c r="N57" s="80"/>
-      <c r="O57" s="80"/>
-      <c r="P57" s="80"/>
-      <c r="Q57" s="80"/>
-      <c r="R57" s="80"/>
+      <c r="D57" s="80" t="s">
+        <v>246</v>
+      </c>
+      <c r="E57" s="80" t="s">
+        <v>189</v>
+      </c>
+      <c r="F57" s="80" t="s">
+        <v>184</v>
+      </c>
+      <c r="G57" s="81" t="s">
+        <v>247</v>
+      </c>
+      <c r="H57" s="80" t="s">
+        <v>185</v>
+      </c>
+      <c r="I57" s="80" t="s">
+        <v>204</v>
+      </c>
+      <c r="J57" s="80" t="s">
+        <v>248</v>
+      </c>
+      <c r="K57" s="80" t="s">
+        <v>247</v>
+      </c>
+      <c r="L57" s="80" t="s">
+        <v>249</v>
+      </c>
+      <c r="M57" s="80" t="s">
+        <v>250</v>
+      </c>
+      <c r="N57" s="80" t="s">
+        <v>183</v>
+      </c>
+      <c r="O57" s="80" t="s">
+        <v>251</v>
+      </c>
+      <c r="P57" s="80" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q57" s="80" t="s">
+        <v>253</v>
+      </c>
+      <c r="R57" s="80" t="s">
+        <v>253</v>
+      </c>
       <c r="S57" s="94"/>
       <c r="V57" s="60"/>
     </row>
@@ -4836,17 +5293,39 @@
         <f>B57+1</f>
         <v>15</v>
       </c>
-      <c r="D61" s="80"/>
-      <c r="E61" s="80"/>
-      <c r="F61" s="80"/>
-      <c r="G61" s="81"/>
-      <c r="H61" s="80"/>
-      <c r="I61" s="80"/>
-      <c r="J61" s="80"/>
-      <c r="K61" s="80"/>
-      <c r="L61" s="80"/>
-      <c r="M61" s="80"/>
-      <c r="N61" s="80"/>
+      <c r="D61" s="80" t="s">
+        <v>185</v>
+      </c>
+      <c r="E61" s="80" t="s">
+        <v>254</v>
+      </c>
+      <c r="F61" s="80" t="s">
+        <v>255</v>
+      </c>
+      <c r="G61" s="81" t="s">
+        <v>223</v>
+      </c>
+      <c r="H61" s="80" t="s">
+        <v>212</v>
+      </c>
+      <c r="I61" s="80" t="s">
+        <v>241</v>
+      </c>
+      <c r="J61" s="80" t="s">
+        <v>256</v>
+      </c>
+      <c r="K61" s="80" t="s">
+        <v>257</v>
+      </c>
+      <c r="L61" s="80" t="s">
+        <v>258</v>
+      </c>
+      <c r="M61" s="80" t="s">
+        <v>259</v>
+      </c>
+      <c r="N61" s="80" t="s">
+        <v>185</v>
+      </c>
       <c r="O61" s="80"/>
       <c r="P61" s="80"/>
       <c r="Q61" s="80"/>
@@ -5002,21 +5481,51 @@
         <f>B65+1</f>
         <v>17</v>
       </c>
-      <c r="D69" s="80"/>
-      <c r="E69" s="80"/>
-      <c r="F69" s="80"/>
-      <c r="G69" s="81"/>
-      <c r="H69" s="80"/>
-      <c r="I69" s="80"/>
-      <c r="J69" s="80"/>
-      <c r="K69" s="80"/>
-      <c r="L69" s="80"/>
-      <c r="M69" s="80"/>
-      <c r="N69" s="80"/>
-      <c r="O69" s="80"/>
-      <c r="P69" s="80"/>
-      <c r="Q69" s="80"/>
-      <c r="R69" s="80"/>
+      <c r="D69" s="80" t="s">
+        <v>250</v>
+      </c>
+      <c r="E69" s="80" t="s">
+        <v>237</v>
+      </c>
+      <c r="F69" s="80" t="s">
+        <v>251</v>
+      </c>
+      <c r="G69" s="81" t="s">
+        <v>252</v>
+      </c>
+      <c r="H69" s="80" t="s">
+        <v>183</v>
+      </c>
+      <c r="I69" s="80" t="s">
+        <v>251</v>
+      </c>
+      <c r="J69" s="80" t="s">
+        <v>252</v>
+      </c>
+      <c r="K69" s="80" t="s">
+        <v>260</v>
+      </c>
+      <c r="L69" s="80" t="s">
+        <v>260</v>
+      </c>
+      <c r="M69" s="80" t="s">
+        <v>185</v>
+      </c>
+      <c r="N69" s="80" t="s">
+        <v>246</v>
+      </c>
+      <c r="O69" s="80" t="s">
+        <v>189</v>
+      </c>
+      <c r="P69" s="80" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q69" s="80" t="s">
+        <v>262</v>
+      </c>
+      <c r="R69" s="80" t="s">
+        <v>183</v>
+      </c>
       <c r="S69" s="94"/>
       <c r="V69" s="60"/>
     </row>
@@ -5085,21 +5594,51 @@
         <f>B69+1</f>
         <v>18</v>
       </c>
-      <c r="D73" s="80"/>
-      <c r="E73" s="80"/>
-      <c r="F73" s="80"/>
-      <c r="G73" s="81"/>
-      <c r="H73" s="80"/>
-      <c r="I73" s="80"/>
-      <c r="J73" s="80"/>
-      <c r="K73" s="80"/>
-      <c r="L73" s="80"/>
-      <c r="M73" s="80"/>
-      <c r="N73" s="80"/>
-      <c r="O73" s="80"/>
-      <c r="P73" s="80"/>
-      <c r="Q73" s="80"/>
-      <c r="R73" s="80"/>
+      <c r="D73" s="80" t="s">
+        <v>263</v>
+      </c>
+      <c r="E73" s="80" t="s">
+        <v>264</v>
+      </c>
+      <c r="F73" s="80" t="s">
+        <v>261</v>
+      </c>
+      <c r="G73" s="81" t="s">
+        <v>265</v>
+      </c>
+      <c r="H73" s="80" t="s">
+        <v>185</v>
+      </c>
+      <c r="I73" s="80" t="s">
+        <v>204</v>
+      </c>
+      <c r="J73" s="80" t="s">
+        <v>251</v>
+      </c>
+      <c r="K73" s="80" t="s">
+        <v>252</v>
+      </c>
+      <c r="L73" s="80" t="s">
+        <v>266</v>
+      </c>
+      <c r="M73" s="80" t="s">
+        <v>266</v>
+      </c>
+      <c r="N73" s="80" t="s">
+        <v>183</v>
+      </c>
+      <c r="O73" s="80" t="s">
+        <v>267</v>
+      </c>
+      <c r="P73" s="80" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q73" s="80" t="s">
+        <v>269</v>
+      </c>
+      <c r="R73" s="80" t="s">
+        <v>270</v>
+      </c>
       <c r="S73" s="94"/>
       <c r="V73" s="60"/>
     </row>
@@ -5168,17 +5707,39 @@
         <f>B73+1</f>
         <v>19</v>
       </c>
-      <c r="D77" s="80"/>
-      <c r="E77" s="80"/>
-      <c r="F77" s="80"/>
-      <c r="G77" s="81"/>
-      <c r="H77" s="80"/>
-      <c r="I77" s="80"/>
-      <c r="J77" s="80"/>
-      <c r="K77" s="80"/>
-      <c r="L77" s="80"/>
-      <c r="M77" s="80"/>
-      <c r="N77" s="80"/>
+      <c r="D77" s="80" t="s">
+        <v>185</v>
+      </c>
+      <c r="E77" s="80" t="s">
+        <v>254</v>
+      </c>
+      <c r="F77" s="80" t="s">
+        <v>209</v>
+      </c>
+      <c r="G77" s="81" t="s">
+        <v>271</v>
+      </c>
+      <c r="H77" s="80" t="s">
+        <v>272</v>
+      </c>
+      <c r="I77" s="80" t="s">
+        <v>241</v>
+      </c>
+      <c r="J77" s="80" t="s">
+        <v>206</v>
+      </c>
+      <c r="K77" s="80" t="s">
+        <v>207</v>
+      </c>
+      <c r="L77" s="80" t="s">
+        <v>232</v>
+      </c>
+      <c r="M77" s="80" t="s">
+        <v>273</v>
+      </c>
+      <c r="N77" s="80" t="s">
+        <v>236</v>
+      </c>
       <c r="O77" s="80"/>
       <c r="P77" s="80"/>
       <c r="Q77" s="80"/>
@@ -5334,21 +5895,51 @@
         <f>B81+1</f>
         <v>21</v>
       </c>
-      <c r="D85" s="80"/>
-      <c r="E85" s="80"/>
-      <c r="F85" s="80"/>
-      <c r="G85" s="81"/>
-      <c r="H85" s="80"/>
-      <c r="I85" s="80"/>
-      <c r="J85" s="80"/>
-      <c r="K85" s="80"/>
-      <c r="L85" s="80"/>
-      <c r="M85" s="80"/>
-      <c r="N85" s="80"/>
-      <c r="O85" s="80"/>
-      <c r="P85" s="80"/>
-      <c r="Q85" s="80"/>
-      <c r="R85" s="80"/>
+      <c r="D85" s="80" t="s">
+        <v>274</v>
+      </c>
+      <c r="E85" s="80" t="s">
+        <v>220</v>
+      </c>
+      <c r="F85" s="80" t="s">
+        <v>275</v>
+      </c>
+      <c r="G85" s="81" t="s">
+        <v>276</v>
+      </c>
+      <c r="H85" s="80" t="s">
+        <v>183</v>
+      </c>
+      <c r="I85" s="80" t="s">
+        <v>277</v>
+      </c>
+      <c r="J85" s="80" t="s">
+        <v>278</v>
+      </c>
+      <c r="K85" s="80" t="s">
+        <v>262</v>
+      </c>
+      <c r="L85" s="80" t="s">
+        <v>262</v>
+      </c>
+      <c r="M85" s="80" t="s">
+        <v>185</v>
+      </c>
+      <c r="N85" s="80" t="s">
+        <v>279</v>
+      </c>
+      <c r="O85" s="80" t="s">
+        <v>220</v>
+      </c>
+      <c r="P85" s="80" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q85" s="80" t="s">
+        <v>280</v>
+      </c>
+      <c r="R85" s="80" t="s">
+        <v>183</v>
+      </c>
       <c r="S85" s="94"/>
       <c r="V85" s="60"/>
     </row>
@@ -5417,21 +6008,51 @@
         <f>B85+1</f>
         <v>22</v>
       </c>
-      <c r="D89" s="80"/>
-      <c r="E89" s="80"/>
-      <c r="F89" s="80"/>
-      <c r="G89" s="80"/>
-      <c r="H89" s="80"/>
-      <c r="I89" s="80"/>
-      <c r="J89" s="80"/>
-      <c r="K89" s="80"/>
-      <c r="L89" s="80"/>
-      <c r="M89" s="80"/>
-      <c r="N89" s="80"/>
-      <c r="O89" s="80"/>
-      <c r="P89" s="80"/>
-      <c r="Q89" s="80"/>
-      <c r="R89" s="80"/>
+      <c r="D89" s="80" t="s">
+        <v>281</v>
+      </c>
+      <c r="E89" s="80" t="s">
+        <v>282</v>
+      </c>
+      <c r="F89" s="80" t="s">
+        <v>283</v>
+      </c>
+      <c r="G89" s="80" t="s">
+        <v>283</v>
+      </c>
+      <c r="H89" s="80" t="s">
+        <v>185</v>
+      </c>
+      <c r="I89" s="80" t="s">
+        <v>204</v>
+      </c>
+      <c r="J89" s="80" t="s">
+        <v>234</v>
+      </c>
+      <c r="K89" s="80" t="s">
+        <v>284</v>
+      </c>
+      <c r="L89" s="80" t="s">
+        <v>285</v>
+      </c>
+      <c r="M89" s="80" t="s">
+        <v>285</v>
+      </c>
+      <c r="N89" s="80" t="s">
+        <v>183</v>
+      </c>
+      <c r="O89" s="80" t="s">
+        <v>217</v>
+      </c>
+      <c r="P89" s="80" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q89" s="80" t="s">
+        <v>217</v>
+      </c>
+      <c r="R89" s="80" t="s">
+        <v>218</v>
+      </c>
       <c r="S89" s="94"/>
       <c r="V89" s="60"/>
     </row>
@@ -5500,17 +6121,39 @@
         <f>B89+1</f>
         <v>23</v>
       </c>
-      <c r="D93" s="80"/>
-      <c r="E93" s="80"/>
-      <c r="F93" s="80"/>
-      <c r="G93" s="81"/>
-      <c r="H93" s="80"/>
-      <c r="I93" s="80"/>
-      <c r="J93" s="80"/>
-      <c r="K93" s="80"/>
-      <c r="L93" s="80"/>
-      <c r="M93" s="80"/>
-      <c r="N93" s="80"/>
+      <c r="D93" s="80" t="s">
+        <v>185</v>
+      </c>
+      <c r="E93" s="80" t="s">
+        <v>220</v>
+      </c>
+      <c r="F93" s="80" t="s">
+        <v>214</v>
+      </c>
+      <c r="G93" s="81" t="s">
+        <v>286</v>
+      </c>
+      <c r="H93" s="80" t="s">
+        <v>287</v>
+      </c>
+      <c r="I93" s="80" t="s">
+        <v>183</v>
+      </c>
+      <c r="J93" s="80" t="s">
+        <v>203</v>
+      </c>
+      <c r="K93" s="80" t="s">
+        <v>288</v>
+      </c>
+      <c r="L93" s="80" t="s">
+        <v>220</v>
+      </c>
+      <c r="M93" s="80" t="s">
+        <v>289</v>
+      </c>
+      <c r="N93" s="80" t="s">
+        <v>236</v>
+      </c>
       <c r="O93" s="80"/>
       <c r="P93" s="80"/>
       <c r="Q93" s="80"/>
@@ -8539,194 +9182,202 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D3:R3">
-    <cfRule type="expression" dxfId="47" priority="401">
+    <cfRule type="expression" dxfId="49" priority="409">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="402">
+    <cfRule type="expression" dxfId="48" priority="410">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:R7">
-    <cfRule type="expression" dxfId="45" priority="38">
+    <cfRule type="expression" dxfId="47" priority="46">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="37">
+    <cfRule type="expression" dxfId="46" priority="45">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:R11">
-    <cfRule type="expression" dxfId="43" priority="36">
+    <cfRule type="expression" dxfId="45" priority="7">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="44" priority="8">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="42" priority="35">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:R15">
-    <cfRule type="expression" dxfId="41" priority="34">
+    <cfRule type="expression" dxfId="43" priority="3">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="42" priority="4">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="40" priority="33">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:R19">
-    <cfRule type="expression" dxfId="39" priority="31">
+    <cfRule type="expression" dxfId="41" priority="5">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="32">
+    <cfRule type="expression" dxfId="40" priority="6">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D23:R23 D39:R39 D87:R87 D91:R91 D95:R95 D99:R99 D103:R103 D111:R111 D115:R115 D119:R119 D123:R123 D127:R127 D131:R131 D135:R135 D139:R139 D143:R143 D147:R147 D151:R151 D155:R155 D159:R159 D163:R163">
-    <cfRule type="expression" dxfId="37" priority="46">
+  <conditionalFormatting sqref="D23:R23">
+    <cfRule type="expression" dxfId="39" priority="2">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="45">
+    <cfRule type="expression" dxfId="38" priority="1">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:R27">
-    <cfRule type="expression" dxfId="35" priority="30">
+    <cfRule type="expression" dxfId="37" priority="38">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="29">
+    <cfRule type="expression" dxfId="36" priority="37">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:R31">
-    <cfRule type="expression" dxfId="33" priority="28">
+    <cfRule type="expression" dxfId="35" priority="36">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="27">
+    <cfRule type="expression" dxfId="34" priority="35">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35:R35">
-    <cfRule type="expression" dxfId="31" priority="25">
+    <cfRule type="expression" dxfId="33" priority="33">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="26">
+    <cfRule type="expression" dxfId="32" priority="34">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D43:R43">
-    <cfRule type="expression" dxfId="29" priority="24">
+  <conditionalFormatting sqref="D39:R39 D87:R87 D91:R91 D95:R95 D99:R99 D103:R103 D111:R111 D115:R115 D119:R119 D123:R123 D127:R127 D131:R131 D135:R135 D139:R139 D143:R143 D147:R147 D151:R151 D155:R155 D159:R159 D163:R163">
+    <cfRule type="expression" dxfId="31" priority="54">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="23">
+    <cfRule type="expression" dxfId="30" priority="53">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D43:R43">
+    <cfRule type="expression" dxfId="29" priority="32">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="31">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47:R47">
-    <cfRule type="expression" dxfId="27" priority="22">
+    <cfRule type="expression" dxfId="27" priority="30">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="21">
+    <cfRule type="expression" dxfId="26" priority="29">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51:R51">
-    <cfRule type="expression" dxfId="25" priority="19">
+    <cfRule type="expression" dxfId="25" priority="27">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="20">
+    <cfRule type="expression" dxfId="24" priority="28">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55:R55">
-    <cfRule type="expression" dxfId="23" priority="18">
+    <cfRule type="expression" dxfId="23" priority="26">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="17">
+    <cfRule type="expression" dxfId="22" priority="25">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D59:R59">
-    <cfRule type="expression" dxfId="21" priority="16">
+    <cfRule type="expression" dxfId="21" priority="24">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="15">
+    <cfRule type="expression" dxfId="20" priority="23">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D63:R63">
-    <cfRule type="expression" dxfId="19" priority="13">
+    <cfRule type="expression" dxfId="19" priority="21">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="14">
+    <cfRule type="expression" dxfId="18" priority="22">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D67:R67">
-    <cfRule type="expression" dxfId="17" priority="12">
+    <cfRule type="expression" dxfId="17" priority="20">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="11">
+    <cfRule type="expression" dxfId="16" priority="19">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D71:R71">
-    <cfRule type="expression" dxfId="15" priority="9">
+    <cfRule type="expression" dxfId="15" priority="18">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="17">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="14" priority="10">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D75:R75">
-    <cfRule type="expression" dxfId="13" priority="8">
+    <cfRule type="expression" dxfId="13" priority="16">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="7">
+    <cfRule type="expression" dxfId="12" priority="15">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D79:R79">
-    <cfRule type="expression" dxfId="11" priority="5">
+    <cfRule type="expression" dxfId="11" priority="14">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="13">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="6">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D83:R83">
+    <cfRule type="expression" dxfId="9" priority="12">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="11">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D107:R107">
+    <cfRule type="expression" dxfId="7" priority="9">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="10">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D83:R83">
-    <cfRule type="expression" dxfId="9" priority="3">
+  <conditionalFormatting sqref="D167:R167 D171:R171 D175:R175 D179:R179 D183:R183 D187:R187 D191:R191 D195:R195 D199:R199">
+    <cfRule type="expression" dxfId="5" priority="51">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="4">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D107:R107">
-    <cfRule type="expression" dxfId="7" priority="2">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="1">
-      <formula>顯示注音輸入</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D167:R167 D171:R171 D175:R175 D179:R179 D183:R183 D187:R187 D191:R191 D195:R195 D199:R199">
-    <cfRule type="expression" dxfId="5" priority="43">
-      <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="44">
+    <cfRule type="expression" dxfId="4" priority="52">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D203:R203">
-    <cfRule type="expression" dxfId="3" priority="41">
+    <cfRule type="expression" dxfId="3" priority="49">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="42">
+    <cfRule type="expression" dxfId="2" priority="50">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D207:R207 D211:R211 D215:R215 D219:R219 D223:R223 D227:R227 D231:R231 D235:R235 D239:R239">
-    <cfRule type="expression" dxfId="1" priority="39">
+    <cfRule type="expression" dxfId="1" priority="47">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="40">
+    <cfRule type="expression" dxfId="0" priority="48">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
